--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics _New Screens.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics _New Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Class Scheduling Tool" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="156">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -55,7 +55,10 @@
 5. Classroom </t>
   </si>
   <si>
-    <t>url: wscdemo.eduleadonline.com</t>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: admin@123
+Trainer: trainer@test.com,  PW: admin@123
+Student: student@test.com, PW: admin@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -73,12 +76,18 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Results </t>
+    <t>Actual Results (SLCM Admin)</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
   </si>
   <si>
+    <t>BUG ID</t>
+  </si>
+  <si>
+    <t>Actual Results (Trainer)</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -89,6 +98,12 @@
   </si>
   <si>
     <t>Class Scheduling Tool page should be open</t>
+  </si>
+  <si>
+    <t>Class Scheduling Tool page is opening</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>click on Student Group dropdown, select data</t>
@@ -99,11 +114,20 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Student Group dropdown is clickable.
+user is able to select student group
+it is a link field</t>
+  </si>
+  <si>
     <t>verify the screen, after select student group</t>
   </si>
   <si>
     <t>Semester, Academic Year, Academic Term, Department should be auto fetched
 it should be a link field</t>
+  </si>
+  <si>
+    <t>Semester, Academic Year, Academic Term, Department is auto fetched
+it is a link field</t>
   </si>
   <si>
     <t>click on Room dropdown, select the room</t>
@@ -114,10 +138,18 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Room dropdown is clickable.
+user is able to select Room
+it is a link field</t>
+  </si>
+  <si>
     <t>click on add row button of Trainer List</t>
   </si>
   <si>
     <t>new row should be added in Trainer List table</t>
+  </si>
+  <si>
+    <t>new row is adding in Trainer List table</t>
   </si>
   <si>
     <t>click on Trainer dropdown, select the Trainer</t>
@@ -129,6 +161,12 @@
 Trainer name should be auto fetched</t>
   </si>
   <si>
+    <t>Trainer list is not showing</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>click on Class Start Date field, put the date</t>
   </si>
   <si>
@@ -137,6 +175,11 @@
 user should able to put the date</t>
   </si>
   <si>
+    <t>Class Start Date field is clickable
+datepicker box is opening
+user is able to put the date</t>
+  </si>
+  <si>
     <t>click on Class end Date field, put the date</t>
   </si>
   <si>
@@ -145,6 +188,11 @@
 user should able to put the date</t>
   </si>
   <si>
+    <t>Class end Date field is clickable
+datepicker box is opening
+user is able to put the date</t>
+  </si>
+  <si>
     <t>click on From Time field, set the time</t>
   </si>
   <si>
@@ -153,6 +201,11 @@
 user should able to set the time</t>
   </si>
   <si>
+    <t>From Time field is clickable
+Time row is opening
+user is able to set the time</t>
+  </si>
+  <si>
     <t>click on to Time field, set the time</t>
   </si>
   <si>
@@ -161,11 +214,20 @@
 user should able to set the time</t>
   </si>
   <si>
+    <t>To Time field is clickable
+Time row is opening
+user is able to set the time</t>
+  </si>
+  <si>
     <t>click on Monday, Tuesday, Wednesday, Thursday, Friday, Saturday, Sunday checkbox for schedule class for individual day</t>
   </si>
   <si>
-    <t>each day of checkbox should clickable, 
+    <t>each day of checkbox should be clickable, 
 class should be scheduled as per checked day</t>
+  </si>
+  <si>
+    <t>each day of checkbox is clickable, 
+class is scheduled as per checked day</t>
   </si>
   <si>
     <t>click on Reschedule Reschedule checkbox</t>
@@ -175,22 +237,36 @@
 class should be Reschedule as per checked day</t>
   </si>
   <si>
+    <t>Reschedule checkbox is clickable. 
+class is Reschedule as per checked day</t>
+  </si>
+  <si>
     <t>click select all button</t>
   </si>
   <si>
     <t>all day checkbox should be checked</t>
   </si>
   <si>
+    <t>all day checkbox is checked</t>
+  </si>
+  <si>
     <t>click unselect all button</t>
   </si>
   <si>
     <t>all day checkbox should be unchecked</t>
   </si>
   <si>
+    <t>all day checkbox is unchecked</t>
+  </si>
+  <si>
     <t>after fill all mandatory &amp; required fields, click on schedule class button</t>
   </si>
   <si>
     <t>class should be schedule as per the filled details</t>
+  </si>
+  <si>
+    <t>class is not schedule successfully as per the filled details.
+Course is mandatory alert message is showing, whereas course field is not available in the screen</t>
   </si>
   <si>
     <t>Roles And Permission</t>
@@ -267,6 +343,30 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -314,16 +414,25 @@
     <t>Assignment page should be open</t>
   </si>
   <si>
+    <t>Assignment page is opening</t>
+  </si>
+  <si>
     <t>click on add assignment button</t>
   </si>
   <si>
     <t>new assignment form page should be open</t>
   </si>
   <si>
+    <t>new assignment form page is opening</t>
+  </si>
+  <si>
     <t>click on Evaluate checkbox</t>
   </si>
   <si>
-    <t>Evaluate checkbox should be clickable</t>
+    <t>Evaluate checkbox should be clickable. Assessment Component Details section should be open when enable is checked</t>
+  </si>
+  <si>
+    <t>Evaluate checkbox is clickable. Assessment Component Details section is opening when enable is checked</t>
   </si>
   <si>
     <t>click on Participant Group dropdown, select the Participant Group</t>
@@ -331,7 +440,12 @@
   <si>
     <t>user should able to select data from Participant Group dropdown
 it should be a link field
-Participant Group related datas should be auto fetched</t>
+Participant Group related datas like course and module details should be auto fetched</t>
+  </si>
+  <si>
+    <t>user is able to select data from Participant Group dropdown
+it is a link field
+Participant Group related datas like course and module details is auto fetched</t>
   </si>
   <si>
     <t>click on Instructor ID dropdown, select the Instructor ID</t>
@@ -342,6 +456,11 @@
 Instructor ID related datas should be auto fetched</t>
   </si>
   <si>
+    <t>user is able to select data from Instructor ID dropdown
+it is a link field
+Instructor ID related datas is auto fetched</t>
+  </si>
+  <si>
     <t>click on Assignment Name dropdown, select the Assignment Name</t>
   </si>
   <si>
@@ -350,6 +469,11 @@
 Assignment Name related datas should be auto fetched</t>
   </si>
   <si>
+    <t>user is able to select data from Assignment Name dropdown
+it is a link field
+Assignment Name related datas is auto fetched</t>
+  </si>
+  <si>
     <t>click on Start Date and Time field, put the date and set the time</t>
   </si>
   <si>
@@ -358,6 +482,11 @@
 user should able to set the time</t>
   </si>
   <si>
+    <t>datepicker box and time row is opening
+user is able to put the date
+user is able to set the time</t>
+  </si>
+  <si>
     <t>click on End Date and Time field, put the date and set the time</t>
   </si>
   <si>
@@ -365,6 +494,9 @@
   </si>
   <si>
     <t>Total duration field should be auto calculated as per Start and end Date and Time</t>
+  </si>
+  <si>
+    <t>Total duration field is auto calculated as per Start and end Date and Time</t>
   </si>
   <si>
     <t>click on Assessment Component dropdown, select data from Assessment Component</t>
@@ -372,6 +504,13 @@
   <si>
     <t>user should able to select data from Assessment Component dropdown
 it should be a link field</t>
+  </si>
+  <si>
+    <t>user is able to select data from Assessment Component dropdown
+it is a link field</t>
+  </si>
+  <si>
+    <t>Assessment Component is already created but not showing to trainer</t>
   </si>
   <si>
     <t>click on attach button of Assignment Attachment and Description</t>
@@ -382,6 +521,11 @@
 link should be shown for choose document</t>
   </si>
   <si>
+    <t>attach button is clickable
+popup is opening
+link is showing  for choose document</t>
+  </si>
+  <si>
     <t>click on any link, choose the document</t>
   </si>
   <si>
@@ -389,16 +533,26 @@
 user should able to choose the document</t>
   </si>
   <si>
+    <t>link is clickable
+user is able to choose the document</t>
+  </si>
+  <si>
     <t>click on upload button</t>
   </si>
   <si>
     <t>document should be uploaded</t>
   </si>
   <si>
+    <t>document is uploaded</t>
+  </si>
+  <si>
     <t>click on Description text area , fill it</t>
   </si>
   <si>
     <t>Description text area should be clickable , user should able to fill it</t>
+  </si>
+  <si>
+    <t>Description text area is clickable , user is able to fill it</t>
   </si>
   <si>
     <t>after fill all mandatory and required fields, click on save button</t>
@@ -408,101 +562,11 @@
 assignment should be created</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Student</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user should have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
-    <t>TC03_Assignment Upload</t>
-  </si>
-  <si>
-    <t>In Assignment Upload Screen Students can easily upload their assignment and it will securely go to their respective trainers.</t>
-  </si>
-  <si>
-    <t>1.Student Group
-2.Assignment</t>
-  </si>
-  <si>
-    <t>New Assignment Upload, Participant Group Details, Participents Details, Assignment Details</t>
-  </si>
-  <si>
-    <t>Academics &gt;  Assignment Upload</t>
-  </si>
-  <si>
-    <t>Click on Home &gt; Academics &gt;  Assignment Upload</t>
-  </si>
-  <si>
-    <t>Assignment Upload page should be open</t>
-  </si>
-  <si>
-    <t>click on add assignment upload button</t>
-  </si>
-  <si>
-    <t>new assignment upload form page should be open</t>
-  </si>
-  <si>
-    <t>click on Participant ID dropdown, select the Participant ID</t>
-  </si>
-  <si>
-    <t>user should able to select data from Participant ID dropdown
-it should be a link field
-Participant ID related datas should be auto fetched</t>
-  </si>
-  <si>
-    <t>click on Assignment  ID dropdown, select the Assignment  ID</t>
-  </si>
-  <si>
-    <t>user should able to select data from Assignment  ID dropdown
-it should be a link field
-Assignment  ID related datas should be auto fetched</t>
-  </si>
-  <si>
-    <t>click on End Date and field, put the date and set the time</t>
-  </si>
-  <si>
-    <t>click on attach button of Attach Assignment</t>
-  </si>
-  <si>
-    <t>page should be saved successfully.
-assignment upload should be created</t>
+    <t>pageis saved successfully.
+assignment is created</t>
+  </si>
+  <si>
+    <t>Assessment Component is a mandatory field. Assessment Component is not showing. user is not able to fill Assessment Component. so page can not save successfully</t>
   </si>
   <si>
     <r>
@@ -536,6 +600,148 @@
       </rPr>
       <t xml:space="preserve"> and check the access privileges</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
+    <t>TC03_Assignment Upload</t>
+  </si>
+  <si>
+    <t>In Assignment Upload Screen Students can easily upload their assignment and it will securely go to their respective trainers.</t>
+  </si>
+  <si>
+    <t>1.Student Group
+2.Assignment</t>
+  </si>
+  <si>
+    <t>New Assignment Upload, Participant Group Details, Participents Details, Assignment Details</t>
+  </si>
+  <si>
+    <t>Actual Results (Student)</t>
+  </si>
+  <si>
+    <t>Academics &gt;  Assignment Upload</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Academics &gt;  Assignment Upload</t>
+  </si>
+  <si>
+    <t>Assignment Upload page should be open</t>
+  </si>
+  <si>
+    <t>Assignment Upload page is opening</t>
+  </si>
+  <si>
+    <t>click on add assignment upload button</t>
+  </si>
+  <si>
+    <t>new assignment upload form page should be open</t>
+  </si>
+  <si>
+    <t>new assignment upload form page is opening</t>
+  </si>
+  <si>
+    <t>user should able to select data from Participant Group dropdown
+it should be a link field
+Participant Group related datas should be auto fetched</t>
+  </si>
+  <si>
+    <t>user is able to select data from Participant Group dropdown
+it is a link field
+Participant Group related data is auto fetched</t>
+  </si>
+  <si>
+    <t>click on Participant ID dropdown, select the Participant ID</t>
+  </si>
+  <si>
+    <t>user should able to select data from Participant ID dropdown
+it should be a link field
+Participant ID related datas should be auto fetched</t>
+  </si>
+  <si>
+    <t>SLCM Admin has not permission to select and read to ToT Participants message is showing</t>
+  </si>
+  <si>
+    <t>click on Assignment  ID dropdown, select the Assignment  ID</t>
+  </si>
+  <si>
+    <t>user should able to select data from Assignment  ID dropdown
+it should be a link field
+Assignment  ID related datas should be auto fetched</t>
+  </si>
+  <si>
+    <t>user is able to select data from Assignment  ID dropdown
+it is a link field
+Assignment  ID related datas is auto fetched</t>
+  </si>
+  <si>
+    <t>click on End Date and field, put the date and set the time</t>
+  </si>
+  <si>
+    <t>click on attach button of Attach Assignment</t>
+  </si>
+  <si>
+    <t>attach button is clickable
+popup is opening
+link is showing for choose document</t>
+  </si>
+  <si>
+    <t>documentis uploaded</t>
+  </si>
+  <si>
+    <t>page should be saved successfully.
+assignment upload should be created</t>
+  </si>
+  <si>
+    <t>After fill all mandatory and required field, click on save button. page is not saved successfully.
+Participant ID fields is auto removed. Participant ID is a mandatory fields. 
+SLCM Admin has not permission to select and read to ToT Participants message is showing</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1435,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1255,6 +1464,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1789,24 +2010,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="41.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +2046,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1837,8 +2065,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1846,8 +2078,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1861,8 +2097,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="90" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1870,14 +2110,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1885,8 +2129,12 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1898,8 +2146,12 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1907,18 +2159,22 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1927,285 +2183,497 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A12" s="8">
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="8">
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="8">
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="8">
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A16" s="8">
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="8">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>281</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3">
+        <v>283</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="8">
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A19" s="8">
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A19" s="9">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="8">
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="8">
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A21" s="9">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A22" s="9">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:11">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24" s="9">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="A25" s="9">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="8">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="8">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="8">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="8">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="3">
+        <v>280</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="3">
+        <v>282</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>53</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:K1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -2217,56 +2685,62 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="47.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="12" customFormat="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:9">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2274,8 +2748,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2289,23 +2765,27 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A5" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:9">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2313,21 +2793,25 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2335,316 +2819,497 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" s="17" customFormat="1" ht="30" spans="1:9">
+      <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>62</v>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="8">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>64</v>
+      <c r="B12" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="8">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="8">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="75" spans="1:9">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="8">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A21" s="9">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A22" s="9">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:9">
+      <c r="A24" s="9">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A25" s="9">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="8">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="E27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="8">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="8">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="8">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="8">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="8">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="8">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="8">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="8">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="8">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -2656,41 +3321,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="46.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2704,8 +3376,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2713,8 +3389,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2728,23 +3408,31 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2752,21 +3440,29 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2774,18 +3470,22 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2794,225 +3494,389 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>97</v>
+      <c r="G9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>98</v>
+      <c r="B11" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="8">
+      <c r="G11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>100</v>
+      <c r="B12" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>290</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>290</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:11">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="8">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="8">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="8">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:11">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="A21" s="9">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="3">
+        <v>291</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3">
+        <v>291</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="8">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="8">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="8">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="8">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="8">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:K1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B23:C23"/>
   </mergeCells>

--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics _New Screens.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics _New Screens.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -56,9 +56,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -76,18 +76,12 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results (SLCM Admin)</t>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
   </si>
   <si>
-    <t>BUG ID</t>
-  </si>
-  <si>
-    <t>Actual Results (Trainer)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
   </si>
   <si>
     <t>Class Scheduling Tool page should be open</t>
-  </si>
-  <si>
-    <t>Class Scheduling Tool page is opening</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>click on Student Group dropdown, select data</t>
@@ -114,20 +102,11 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Student Group dropdown is clickable.
-user is able to select student group
-it is a link field</t>
-  </si>
-  <si>
     <t>verify the screen, after select student group</t>
   </si>
   <si>
     <t>Semester, Academic Year, Academic Term, Department should be auto fetched
 it should be a link field</t>
-  </si>
-  <si>
-    <t>Semester, Academic Year, Academic Term, Department is auto fetched
-it is a link field</t>
   </si>
   <si>
     <t>click on Room dropdown, select the room</t>
@@ -138,18 +117,10 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Room dropdown is clickable.
-user is able to select Room
-it is a link field</t>
-  </si>
-  <si>
     <t>click on add row button of Trainer List</t>
   </si>
   <si>
     <t>new row should be added in Trainer List table</t>
-  </si>
-  <si>
-    <t>new row is adding in Trainer List table</t>
   </si>
   <si>
     <t>click on Trainer dropdown, select the Trainer</t>
@@ -161,12 +132,6 @@
 Trainer name should be auto fetched</t>
   </si>
   <si>
-    <t>Trainer list is not showing</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>click on Class Start Date field, put the date</t>
   </si>
   <si>
@@ -175,11 +140,6 @@
 user should able to put the date</t>
   </si>
   <si>
-    <t>Class Start Date field is clickable
-datepicker box is opening
-user is able to put the date</t>
-  </si>
-  <si>
     <t>click on Class end Date field, put the date</t>
   </si>
   <si>
@@ -188,11 +148,6 @@
 user should able to put the date</t>
   </si>
   <si>
-    <t>Class end Date field is clickable
-datepicker box is opening
-user is able to put the date</t>
-  </si>
-  <si>
     <t>click on From Time field, set the time</t>
   </si>
   <si>
@@ -201,11 +156,6 @@
 user should able to set the time</t>
   </si>
   <si>
-    <t>From Time field is clickable
-Time row is opening
-user is able to set the time</t>
-  </si>
-  <si>
     <t>click on to Time field, set the time</t>
   </si>
   <si>
@@ -214,11 +164,6 @@
 user should able to set the time</t>
   </si>
   <si>
-    <t>To Time field is clickable
-Time row is opening
-user is able to set the time</t>
-  </si>
-  <si>
     <t>click on Monday, Tuesday, Wednesday, Thursday, Friday, Saturday, Sunday checkbox for schedule class for individual day</t>
   </si>
   <si>
@@ -226,10 +171,6 @@
 class should be scheduled as per checked day</t>
   </si>
   <si>
-    <t>each day of checkbox is clickable, 
-class is scheduled as per checked day</t>
-  </si>
-  <si>
     <t>click on Reschedule Reschedule checkbox</t>
   </si>
   <si>
@@ -237,36 +178,22 @@
 class should be Reschedule as per checked day</t>
   </si>
   <si>
-    <t>Reschedule checkbox is clickable. 
-class is Reschedule as per checked day</t>
-  </si>
-  <si>
     <t>click select all button</t>
   </si>
   <si>
     <t>all day checkbox should be checked</t>
   </si>
   <si>
-    <t>all day checkbox is checked</t>
-  </si>
-  <si>
     <t>click unselect all button</t>
   </si>
   <si>
     <t>all day checkbox should be unchecked</t>
   </si>
   <si>
-    <t>all day checkbox is unchecked</t>
-  </si>
-  <si>
     <t>after fill all mandatory &amp; required fields, click on schedule class button</t>
   </si>
   <si>
     <t>class should be schedule as per the filled details</t>
-  </si>
-  <si>
-    <t>class is not schedule successfully as per the filled details.
-Course is mandatory alert message is showing, whereas course field is not available in the screen</t>
   </si>
   <si>
     <t>Roles And Permission</t>
@@ -343,30 +270,6 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select, Read,Write,Create,Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -414,25 +317,16 @@
     <t>Assignment page should be open</t>
   </si>
   <si>
-    <t>Assignment page is opening</t>
-  </si>
-  <si>
     <t>click on add assignment button</t>
   </si>
   <si>
     <t>new assignment form page should be open</t>
   </si>
   <si>
-    <t>new assignment form page is opening</t>
-  </si>
-  <si>
     <t>click on Evaluate checkbox</t>
   </si>
   <si>
     <t>Evaluate checkbox should be clickable. Assessment Component Details section should be open when enable is checked</t>
-  </si>
-  <si>
-    <t>Evaluate checkbox is clickable. Assessment Component Details section is opening when enable is checked</t>
   </si>
   <si>
     <t>click on Participant Group dropdown, select the Participant Group</t>
@@ -443,11 +337,6 @@
 Participant Group related datas like course and module details should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select data from Participant Group dropdown
-it is a link field
-Participant Group related datas like course and module details is auto fetched</t>
-  </si>
-  <si>
     <t>click on Instructor ID dropdown, select the Instructor ID</t>
   </si>
   <si>
@@ -456,11 +345,6 @@
 Instructor ID related datas should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select data from Instructor ID dropdown
-it is a link field
-Instructor ID related datas is auto fetched</t>
-  </si>
-  <si>
     <t>click on Assignment Name dropdown, select the Assignment Name</t>
   </si>
   <si>
@@ -469,11 +353,6 @@
 Assignment Name related datas should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select data from Assignment Name dropdown
-it is a link field
-Assignment Name related datas is auto fetched</t>
-  </si>
-  <si>
     <t>click on Start Date and Time field, put the date and set the time</t>
   </si>
   <si>
@@ -482,11 +361,6 @@
 user should able to set the time</t>
   </si>
   <si>
-    <t>datepicker box and time row is opening
-user is able to put the date
-user is able to set the time</t>
-  </si>
-  <si>
     <t>click on End Date and Time field, put the date and set the time</t>
   </si>
   <si>
@@ -494,9 +368,6 @@
   </si>
   <si>
     <t>Total duration field should be auto calculated as per Start and end Date and Time</t>
-  </si>
-  <si>
-    <t>Total duration field is auto calculated as per Start and end Date and Time</t>
   </si>
   <si>
     <t>click on Assessment Component dropdown, select data from Assessment Component</t>
@@ -504,13 +375,6 @@
   <si>
     <t>user should able to select data from Assessment Component dropdown
 it should be a link field</t>
-  </si>
-  <si>
-    <t>user is able to select data from Assessment Component dropdown
-it is a link field</t>
-  </si>
-  <si>
-    <t>Assessment Component is already created but not showing to trainer</t>
   </si>
   <si>
     <t>click on attach button of Assignment Attachment and Description</t>
@@ -521,11 +385,6 @@
 link should be shown for choose document</t>
   </si>
   <si>
-    <t>attach button is clickable
-popup is opening
-link is showing  for choose document</t>
-  </si>
-  <si>
     <t>click on any link, choose the document</t>
   </si>
   <si>
@@ -533,26 +392,16 @@
 user should able to choose the document</t>
   </si>
   <si>
-    <t>link is clickable
-user is able to choose the document</t>
-  </si>
-  <si>
     <t>click on upload button</t>
   </si>
   <si>
     <t>document should be uploaded</t>
   </si>
   <si>
-    <t>document is uploaded</t>
-  </si>
-  <si>
     <t>click on Description text area , fill it</t>
   </si>
   <si>
     <t>Description text area should be clickable , user should able to fill it</t>
-  </si>
-  <si>
-    <t>Description text area is clickable , user is able to fill it</t>
   </si>
   <si>
     <t>after fill all mandatory and required fields, click on save button</t>
@@ -560,13 +409,6 @@
   <si>
     <t>page should be saved successfully.
 assignment should be created</t>
-  </si>
-  <si>
-    <t>pageis saved successfully.
-assignment is created</t>
-  </si>
-  <si>
-    <t>Assessment Component is a mandatory field. Assessment Component is not showing. user is not able to fill Assessment Component. so page can not save successfully</t>
   </si>
   <si>
     <r>
@@ -626,30 +468,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
     <t>TC03_Assignment Upload</t>
   </si>
   <si>
@@ -663,9 +481,6 @@
     <t>New Assignment Upload, Participant Group Details, Participents Details, Assignment Details</t>
   </si>
   <si>
-    <t>Actual Results (Student)</t>
-  </si>
-  <si>
     <t>Academics &gt;  Assignment Upload</t>
   </si>
   <si>
@@ -675,16 +490,10 @@
     <t>Assignment Upload page should be open</t>
   </si>
   <si>
-    <t>Assignment Upload page is opening</t>
-  </si>
-  <si>
     <t>click on add assignment upload button</t>
   </si>
   <si>
     <t>new assignment upload form page should be open</t>
-  </si>
-  <si>
-    <t>new assignment upload form page is opening</t>
   </si>
   <si>
     <t>user should able to select data from Participant Group dropdown
@@ -692,11 +501,6 @@
 Participant Group related datas should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select data from Participant Group dropdown
-it is a link field
-Participant Group related data is auto fetched</t>
-  </si>
-  <si>
     <t>click on Participant ID dropdown, select the Participant ID</t>
   </si>
   <si>
@@ -705,9 +509,6 @@
 Participant ID related datas should be auto fetched</t>
   </si>
   <si>
-    <t>SLCM Admin has not permission to select and read to ToT Participants message is showing</t>
-  </si>
-  <si>
     <t>click on Assignment  ID dropdown, select the Assignment  ID</t>
   </si>
   <si>
@@ -716,32 +517,14 @@
 Assignment  ID related datas should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select data from Assignment  ID dropdown
-it is a link field
-Assignment  ID related datas is auto fetched</t>
-  </si>
-  <si>
     <t>click on End Date and field, put the date and set the time</t>
   </si>
   <si>
     <t>click on attach button of Attach Assignment</t>
-  </si>
-  <si>
-    <t>attach button is clickable
-popup is opening
-link is showing for choose document</t>
-  </si>
-  <si>
-    <t>documentis uploaded</t>
   </si>
   <si>
     <t>page should be saved successfully.
 assignment upload should be created</t>
-  </si>
-  <si>
-    <t>After fill all mandatory and required field, click on save button. page is not saved successfully.
-Participant ID fields is auto removed. Participant ID is a mandatory fields. 
-SLCM Admin has not permission to select and read to ToT Participants message is showing</t>
   </si>
 </sst>
 </file>
@@ -749,10 +532,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -930,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,12 +723,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,16 +1048,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,7 +1066,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1313,16 +1090,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1331,89 +1108,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,9 +1209,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1447,19 +1221,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,11 +1245,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2010,27 +1793,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.5714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="14.4761904761905" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2040,18 +1822,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2062,79 +1837,44 @@
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2143,38 +1883,24 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2183,497 +1909,267 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A11" s="9">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A14" s="9">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="9">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A16" s="9">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3">
-        <v>281</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3">
-        <v>283</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A18" s="9">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="8">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A19" s="9">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A20" s="9">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A21" s="9">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A22" s="9">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="9">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="9">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="75" spans="1:11">
-      <c r="A25" s="9">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="3">
-        <v>280</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="3">
-        <v>282</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>72</v>
+      <c r="B27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:K1"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -2685,631 +2181,394 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.5714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.752380952381" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="12" customFormat="1" ht="52" customHeight="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:4">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:9">
-      <c r="A5" s="9">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:4">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" s="17" customFormat="1" ht="30" spans="1:9">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="9" s="16" customFormat="1" ht="30" spans="1:6">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="F9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>81</v>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="9">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="8">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="75" spans="1:9">
-      <c r="A14" s="9">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A15" s="9">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A16" s="9">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A18" s="9">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:9">
-      <c r="A19" s="9">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A20" s="9">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:9">
-      <c r="A21" s="9">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:9">
-      <c r="A22" s="9">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
-      <c r="A23" s="9">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
-      <c r="A24" s="9">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A25" s="9">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>289</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>72</v>
+      <c r="B27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A30" s="12"/>
-      <c r="B30" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="3"/>
+      <c r="B30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -3321,48 +2580,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3373,119 +2624,70 @@
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:11">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3494,339 +2696,170 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>135</v>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="9">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="9">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A13" s="9">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A14" s="9">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3">
-        <v>290</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3">
-        <v>290</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:11">
-      <c r="A15" s="9">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A16" s="9">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
-      <c r="A17" s="9">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A18" s="9">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="9">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
-      <c r="A20" s="9">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="90" spans="1:11">
-      <c r="A21" s="9">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3">
-        <v>291</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3">
-        <v>291</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:1">
       <c r="A22" s="12"/>
@@ -3834,49 +2867,40 @@
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>72</v>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A24" s="12"/>
-      <c r="B24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A25" s="12"/>
-      <c r="B25" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:K1"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B23:C23"/>
   </mergeCells>
